--- a/biology/Botanique/Symphytum_caucasicum/Symphytum_caucasicum.xlsx
+++ b/biology/Botanique/Symphytum_caucasicum/Symphytum_caucasicum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Consoude du Caucase (Symphytum caucasicum) est une plante vivace de la famille des Boraginacées.
 Nom russe : Окопник кавказский
@@ -512,13 +524,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La consoude du Caucase est une plante herbacée de 60 à 90 cm de haut, d'un port buissonnant.
 Ses feuilles sont alternes, gaufrées, ovales-lancéolées, couvertes de poils raides.
 Ses fleurs bleues (pour le type sauvage), terminales et axillaires, disposées en panicules corymbiformes, fleurissent sur une longue période au printemps - d'avril à juillet -.
 Ses fruits sont composés de 4 akènes lisses et brillants.
-Cette espèce compte 48 chromosomes[1].
+Cette espèce compte 48 chromosomes.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire du Caucase - comme le souligne l'épithète spécifique - mais elle est maintenant répandue dans l'ensemble des contrées tempérées de l'hémisphère nord.
 Son habitat d'origine comprend les bordures de forêts et de rivières, en terres pauvres.
@@ -579,7 +595,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En raison de sa floraison, de sa grande tolérance aux sols, de sa grande rusticité, son utilisation ornementale s'est largement répandue en France. Elle est employée principalement comme couvre-sol de sols très pauvres. Elle supporte la concurrence d'arbres et de presque toutes les espèces. Cette espèce compte maintenant de nombreux hybrides et cultivars :
 Symphytum caucasicum 'Goldsmith' à fleur bleue ou rose pâle.
